--- a/docs/StructureDefinition-ck-questionnaire.xlsx
+++ b/docs/StructureDefinition-ck-questionnaire.xlsx
@@ -5367,7 +5367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>299</v>
       </c>
@@ -5377,13 +5377,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
